--- a/data/mg1.xlsx
+++ b/data/mg1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="13">
   <si>
     <t>hints</t>
   </si>
@@ -28,25 +28,31 @@
     <t>outcome</t>
   </si>
   <si>
+    <t>Lie</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>Nothing</t>
   </si>
   <si>
-    <t>Lie</t>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>Paper</t>
   </si>
   <si>
     <t>Scissors</t>
   </si>
   <si>
-    <t>Paper</t>
-  </si>
-  <si>
-    <t>Rock</t>
-  </si>
-  <si>
     <t>Tie</t>
   </si>
   <si>
     <t>Robot won</t>
+  </si>
+  <si>
+    <t>Player wins</t>
   </si>
 </sst>
 </file>
@@ -404,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,13 +438,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -446,16 +452,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -463,16 +469,220 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
